--- a/biology/Zoologie/William_Thomas_Calman/William_Thomas_Calman.xlsx
+++ b/biology/Zoologie/William_Thomas_Calman/William_Thomas_Calman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Thomas Calman (né le 29 décembre 1871 à Dundee et mort le 29 septembre 1952 à Coulsdon) est un zoologiste écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est dans une société savante de Dundee que le jeune Calman rencontre le biologiste et mathématicien D'Arcy Wentworth Thompson (1860-1948). Il devient un peu plus tard son laborantin ce qui lui permet de suivre gratuitement les cours de Thompson à l’université de Dundee.
 Après l’obtention de son Bachelor of Sciences en 1895, il obtient un poste de maître-assistant à l’université de Dundee. En 1900, il obtient un Doctorat of Sciences. Quatre ans plus tard, il entre au British Museum où il obtient la charge de conservateur-assistant des crustacés et des pycnogonides. Il se marie en 1906 avec Alice Jean Donaldson dont il aura un garçon et une fille.
@@ -548,24 +562,199 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1905
-(en) Calman W.T., 1905. The Cumancea of the Siboga-expedition. Uitkomsten op Zoologisch, Botanisch, Oceanographisch en Geologisch Gebied 36: 1–23.
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Calman W.T., 1905. The Cumancea of the Siboga-expedition. Uitkomsten op Zoologisch, Botanisch, Oceanographisch en Geologisch Gebied 36: 1–23.
 (en) Calman W.T., 1905. Cumacea. Department of Agriculture and …
 (en) Calman W.T., 1905. Note on a genus of euphausiid crustacean. Department of Agriculture and Technical Instruction for …
 (en) Calman W.T., 1905. Cumacea: The Marine Fauna of the West Coast of Ireland.
-(en) Calman W.T., 1905. XVI.—On a new Species of River-Crab from Yunnan. Journal of Natural History, Taylor &amp; Francis.
-1906
-(en) Calman W.T., 1906. Zoological Results of the Third Tanganyika Expedition, conducted by Dr. WA Cunnington, 1904–1905. Report on the Macrurous Crustacea. Proceedings of the Zoological Society of London.
-Calman W.T., 1906. The Cumacea of the Puritan expedition. Mitteiljungen Zoologisches Station Neapel.
-1907
-(en) Calman W.T., 1907. On new or rare Crustacea of the Order Cumacea from the collection of the Copenhagen Museum. Transactions of the Zoological Society of London 18: 1–56.
-1909
-(en) Calman W.T., 1909. LVIII. —The genus Puerulus, Ortmann, and the post-larval development of the Spiny Lobsters (Palinuridæ). Journal of Natural History, Taylor &amp; Francis.
-(en) Calman W.T., 1909. On a new crab taken from a deep-sea telegraph-cable in the Indian Ocean. Annals and Magazine of Natural History, Including Zoology, Botany and Geology, Being a Continuation of the 'Magazine of Botany and Zoology', and of Louden and Charlesworth's 'Magazine of Natural History', Series 8 3(13): 30–33.
-1919
-(en) Calman, W.T., 1919. On barnacles of the genus Megalasma from deep-sea telegraph-cables. Annals and Magazine of Natural History, Séries 9, 4(24): 361–374. XXXIX (BHL).
-1933
-(en) Calman W.T. &amp; Gordon I., 1933. A dodecapodous pycnogonid. … of the Royal Society of London …</t>
+(en) Calman W.T., 1905. XVI.—On a new Species of River-Crab from Yunnan. Journal of Natural History, Taylor &amp; Francis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Calman W.T., 1906. Zoological Results of the Third Tanganyika Expedition, conducted by Dr. WA Cunnington, 1904–1905. Report on the Macrurous Crustacea. Proceedings of the Zoological Society of London.
+Calman W.T., 1906. The Cumacea of the Puritan expedition. Mitteiljungen Zoologisches Station Neapel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Calman W.T., 1907. On new or rare Crustacea of the Order Cumacea from the collection of the Copenhagen Museum. Transactions of the Zoological Society of London 18: 1–56.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Calman W.T., 1909. LVIII. —The genus Puerulus, Ortmann, and the post-larval development of the Spiny Lobsters (Palinuridæ). Journal of Natural History, Taylor &amp; Francis.
+(en) Calman W.T., 1909. On a new crab taken from a deep-sea telegraph-cable in the Indian Ocean. Annals and Magazine of Natural History, Including Zoology, Botany and Geology, Being a Continuation of the 'Magazine of Botany and Zoology', and of Louden and Charlesworth's 'Magazine of Natural History', Series 8 3(13): 30–33.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Calman, W.T., 1919. On barnacles of the genus Megalasma from deep-sea telegraph-cables. Annals and Magazine of Natural History, Séries 9, 4(24): 361–374. XXXIX (BHL).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Thomas_Calman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Calman W.T. &amp; Gordon I., 1933. A dodecapodous pycnogonid. … of the Royal Society of London …</t>
         </is>
       </c>
     </row>
